--- a/SBOL2Excel/test.xlsx
+++ b/SBOL2Excel/test.xlsx
@@ -419,23 +419,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:N86" headerRowCount="1">
-  <autoFilter ref="A19:N86"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Role"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Wasderivedfrom"/>
-    <tableColumn id="5" name="Wasgeneratedby"/>
-    <tableColumn id="6" name="Hasnamespace"/>
-    <tableColumn id="7" name="Hasattachment"/>
-    <tableColumn id="8" name="Strategy"/>
-    <tableColumn id="9" name="Template"/>
-    <tableColumn id="10" name="Hassequence"/>
-    <tableColumn id="11" name="Hasmodel"/>
-    <tableColumn id="12" name="Elements"/>
-    <tableColumn id="13" name="Encoding"/>
-    <tableColumn id="14" name="Member"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:Q61" headerRowCount="1">
+  <autoFilter ref="A19:Q61"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="http://purl.org/dc/terms/title"/>
+    <tableColumn id="2" name="http://sbols.org/v2#persistentIdentity"/>
+    <tableColumn id="3" name="http://sbols.org/v2#elements"/>
+    <tableColumn id="4" name="http://sbols.org/v2#encoding"/>
+    <tableColumn id="5" name="http://www.w3.org/1999/02/22-rdf-syntax-ns#type"/>
+    <tableColumn id="6" name="http://sbols.org/v2#version"/>
+    <tableColumn id="7" name="http://sbols.org/v2#displayId"/>
+    <tableColumn id="8" name="http://sbols.org/v2#role"/>
+    <tableColumn id="9" name="http://sbols.org/v2#type"/>
+    <tableColumn id="10" name="http://www.w3.org/ns/prov#wasGeneratedBy"/>
+    <tableColumn id="11" name="https://wiki.synbiohub.org/wiki/Terms/synbiohub#sourceOrganism"/>
+    <tableColumn id="12" name="http://sbols.org/v2#sequence"/>
+    <tableColumn id="13" name="https://wiki.synbiohub.org/wiki/Terms/synbiohub#designNotes"/>
+    <tableColumn id="14" name="http://purl.obolibrary.org/obo/OBI_0001617"/>
+    <tableColumn id="15" name="https://wiki.synbiohub.org/wiki/Terms/synbiohub#targetOrganism"/>
+    <tableColumn id="16" name="http://www.w3.org/ns/prov#wasDerivedFrom"/>
+    <tableColumn id="17" name="http://purl.org/dc/terms/description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,118 +859,131 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>http://purl.org/dc/terms/title</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>http://sbols.org/v2#persistentIdentity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>http://sbols.org/v2#elements</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wasderivedfrom</t>
+          <t>http://sbols.org/v2#encoding</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wasgeneratedby</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#type</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hasnamespace</t>
+          <t>http://sbols.org/v2#version</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hasattachment</t>
+          <t>http://sbols.org/v2#displayId</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Strategy</t>
+          <t>http://sbols.org/v2#role</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Template</t>
+          <t>http://sbols.org/v2#type</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hassequence</t>
+          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hasmodel</t>
+          <t>https://wiki.synbiohub.org/wiki/Terms/synbiohub#sourceOrganism</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Elements</t>
+          <t>http://sbols.org/v2#sequence</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Encoding</t>
+          <t>https://wiki.synbiohub.org/wiki/Terms/synbiohub#designNotes</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0001617</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://wiki.synbiohub.org/wiki/Terms/synbiohub#targetOrganism</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/description</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Killer-aMFΔ Sequence</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://examples.org/Killer_u45_aMF_u916__sequence</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>atgaccaaaccaacgcaagtcttagttcgttcagtctctattttattcttcatcacactgttgcacttggttgttgcaatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://sbols.org/v2#Sequence</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Killer_u45_aMF_u916__sequence</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v/>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#strategy</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#template</t>
-        </is>
+      <c r="I20" t="n">
+        <v/>
       </c>
       <c r="J20" t="n">
         <v/>
@@ -984,109 +1000,139 @@
       <c r="N20" t="n">
         <v/>
       </c>
+      <c r="O20" t="n">
+        <v/>
+      </c>
+      <c r="P20" t="n">
+        <v/>
+      </c>
+      <c r="Q20" t="n">
+        <v/>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aMFΔ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://examples.org/aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v/>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+      <c r="D21" t="n">
+        <v/>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aMF_u916_</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#strategy</t>
+          <t>http://identifiers.org/so/SO:0002251</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#template</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/Truncated/1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>http://examples.org/aMF_u916__sequence/1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Pre-sequence shortened</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>α-mating factor, pre-sequence shortened</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Killer-aMFΔ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://examples.org/Killer_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v/>
       </c>
-      <c r="K21" t="n">
+      <c r="D22" t="n">
         <v/>
       </c>
-      <c r="L21" t="n">
-        <v/>
-      </c>
-      <c r="M21" t="n">
-        <v/>
-      </c>
-      <c r="N21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v/>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>Killer_u45_aMF_u916_</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#strategy</t>
+          <t>http://identifiers.org/so/SO:0002251</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#template</t>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1095,230 +1141,316 @@
       <c r="K22" t="n">
         <v/>
       </c>
-      <c r="L22" t="n">
-        <v/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>http://examples.org/Killer_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M22" t="n">
         <v/>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Killer followed by aMFΔ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pAOX1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://examples.org/pAOX1</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v/>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="D23" t="n">
         <v/>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pAOX1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#strategy</t>
+          <t>http://identifiers.org/so/SO:0000167</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#template</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v/>
-      </c>
-      <c r="K23" t="n">
-        <v/>
-      </c>
-      <c r="L23" t="n">
-        <v/>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/direct/1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>http://examples.org/pAOX1_sequence/1</t>
+        </is>
       </c>
       <c r="M23" t="n">
         <v/>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Alcohol oxidase 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pENO1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>http://examples.org/pENO1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v/>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="D24" t="n">
         <v/>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pENO1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#strategy</t>
+          <t>http://identifiers.org/so/SO:0000167</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#template</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>http://examples.org/pENO1_sequence/1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>BsaI and BsmBI site removed</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Enolase 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>yEGFP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>http://examples.org/yEGFP</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v/>
       </c>
-      <c r="K24" t="n">
+      <c r="D25" t="n">
         <v/>
       </c>
-      <c r="L24" t="n">
-        <v/>
-      </c>
-      <c r="M24" t="n">
-        <v/>
-      </c>
-      <c r="N24" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v/>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>yEGFP</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#strategy</t>
+          <t>http://identifiers.org/so/SO:0000316</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#template</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v/>
-      </c>
-      <c r="K25" t="n">
-        <v/>
-      </c>
-      <c r="L25" t="n">
-        <v/>
-      </c>
-      <c r="M25" t="n">
-        <v/>
-      </c>
-      <c r="N25" t="n">
-        <v/>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/codon_optimisation/1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:6100</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>http://examples.org/yEGFP_sequence/1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>No stop codon</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Green fluorescent protein</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>PARS Sequence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/PARS_sequence</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>ccttcgtttgtgcggatccaattaatatttacttattttggtcaaccccaaataggttgatttcatacttggttcattcaaaaataagtagtcttttgagatctttcaatattataataaatatactataacagccgacttgtttcattttcgcgaatgttcccccagcttatcg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>PARS_sequence</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1327,15 +1459,11 @@
       <c r="I26" t="n">
         <v/>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
       </c>
       <c r="L26" t="n">
         <v/>
@@ -1346,165 +1474,214 @@
       <c r="N26" t="n">
         <v/>
       </c>
+      <c r="O26" t="n">
+        <v/>
+      </c>
+      <c r="P26" t="n">
+        <v/>
+      </c>
+      <c r="Q26" t="n">
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pTPI1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/pTPI1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v/>
+      </c>
+      <c r="D27" t="n">
+        <v/>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v/>
-      </c>
-      <c r="I27" t="n">
-        <v/>
+          <t>pTPI1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000167</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>http://examples.org/pTPI1_sequence/1</t>
+        </is>
       </c>
       <c r="M27" t="n">
         <v/>
       </c>
-      <c r="N27" t="n">
-        <v/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Triose phosphate isomerase 1</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pGAP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/pGAP</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v/>
+      </c>
+      <c r="D28" t="n">
+        <v/>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v/>
-      </c>
-      <c r="I28" t="n">
-        <v/>
+          <t>pGAP</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000167</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v/>
-      </c>
-      <c r="M28" t="n">
-        <v/>
-      </c>
-      <c r="N28" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>http://examples.org/pGAP_sequence/1</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>BsaI site removed</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pAOX1 Sequence</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/pAOX1_sequence</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>gatctaacatccaaagacgaaaggttgaatgaaacctttttgccatccgacatccacaggtccattctcacacataagtgccaaacgcaacaggaggggatacactagcagcagaccgttgcaaacgcaggacctccactcctcttctcctcaacacccacttttgccatcgaaaaaccagcccagttattgggcttgattggagctcgctcattccaattccttctattaggctactaacaccatgactttattagcctgtctatcctggcccccctggcgaggttcatgtttgtttatttccgaatgcaacaagctccgcattacacccgaacatcactccagatgagggctttctgagtgtggggtcaaatagtttcatgttccccaaatggcccaaaactgacagtttaaacgctgtcttggaacctaatatgacaaaagcgtgatctcatccaagatgaactaagtttggttcgttgaaatgctaacggccagttggtcaaaaagaaacttccaaaagtcggcataccgtttgtcttgtttggtattgattgacgaatgctcaaaaataatctcattaatgcttagcgcagtctctctatcgcttctgaaccccggtgcacctgtgccgaaacgcaaatggggaaacacccgctttttggatgattatgcattgtctccacattgtatgcttccaagattctggtgggaatactgctgatagcctaacgttcatgatcaaaatttaactgttctaacccctacttgacagcaatatataaacagaaggaagctgccctgtcttaaacctttttttttatcatcattattagcttactttcataattgcgactggttccaattgacaagcttttgattttaacgacttttaacgacaacttgagaagatcaaaaaacaactaattattcgaaacg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pAOX1_sequence</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1513,15 +1690,11 @@
       <c r="I29" t="n">
         <v/>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J29" t="n">
+        <v/>
+      </c>
+      <c r="K29" t="n">
+        <v/>
       </c>
       <c r="L29" t="n">
         <v/>
@@ -1532,537 +1705,698 @@
       <c r="N29" t="n">
         <v/>
       </c>
+      <c r="O29" t="n">
+        <v/>
+      </c>
+      <c r="P29" t="n">
+        <v/>
+      </c>
+      <c r="Q29" t="n">
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>SA-aMFΔ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/SA_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v/>
+      </c>
+      <c r="D30" t="n">
+        <v/>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+          <t>SA_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v/>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v/>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>http://examples.org/SA_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M30" t="n">
         <v/>
       </c>
-      <c r="N30" t="n">
-        <v/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Serum albumin followed by aMFΔ</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>PARS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/PARS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v/>
+      </c>
+      <c r="D31" t="n">
+        <v/>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v/>
-      </c>
-      <c r="I31" t="n">
-        <v/>
+          <t>PARS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000296</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>http://examples.org/PARS_sequence/1</t>
+        </is>
       </c>
       <c r="M31" t="n">
         <v/>
       </c>
-      <c r="N31" t="n">
-        <v/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Pichia autonomously replicating sequence</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>Glucoamylase-aMFΔ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/Glucoamylase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v/>
+      </c>
+      <c r="D32" t="n">
+        <v/>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
+          <t>Glucoamylase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v/>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v/>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>http://examples.org/Glucoamylase_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M32" t="n">
         <v/>
       </c>
-      <c r="N32" t="n">
-        <v/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Glucoamylase followed by aMFΔ</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>RFP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/RFP</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v/>
+      </c>
+      <c r="D33" t="n">
+        <v/>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v/>
-      </c>
-      <c r="I33" t="n">
-        <v/>
+          <t>RFP</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000316</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v/>
-      </c>
-      <c r="M33" t="n">
-        <v/>
-      </c>
-      <c r="N33" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:86600</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>http://examples.org/RFP_sequence/1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>No stop codon</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Red fluorescent protein, BsaI removed</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMF_no_EAEA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/aMF_no_EAEA</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v/>
+      </c>
+      <c r="D34" t="n">
+        <v/>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v/>
-      </c>
-      <c r="I34" t="n">
-        <v/>
+          <t>aMF_no_EAEA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/Truncated/1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v/>
-      </c>
-      <c r="M34" t="n">
-        <v/>
-      </c>
-      <c r="N34" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>http://examples.org/aMF_no_EAEA_sequence/1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>No EAEA</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>α-mating factor no EAEA</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>tAOX1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/tAOX1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v/>
+      </c>
+      <c r="D35" t="n">
+        <v/>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v/>
-      </c>
-      <c r="I35" t="n">
-        <v/>
+          <t>tAOX1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000141</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/direct/1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>http://examples.org/tAOX1_sequence/1</t>
+        </is>
       </c>
       <c r="M35" t="n">
         <v/>
       </c>
-      <c r="N35" t="n">
-        <v/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Alcohol oxidase 1</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>RFP_Sec</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/RFP_Sec</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v/>
+      </c>
+      <c r="D36" t="n">
+        <v/>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v/>
-      </c>
-      <c r="I36" t="n">
-        <v/>
+          <t>RFP_Sec</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000316</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v/>
-      </c>
-      <c r="M36" t="n">
-        <v/>
-      </c>
-      <c r="N36" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:86600</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>http://examples.org/RFP_Sec_sequence/1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>No start or stop codon, for use with N-terminal secretion tag</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Red fluorescent protein, BsaI removed</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMFΔ_no_Kex</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/aMF_u916__no_Kex</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v/>
+      </c>
+      <c r="D37" t="n">
+        <v/>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v/>
-      </c>
-      <c r="I37" t="n">
-        <v/>
+          <t>aMF_u916__no_Kex</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/Truncated/1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v/>
-      </c>
-      <c r="M37" t="n">
-        <v/>
-      </c>
-      <c r="N37" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>http://examples.org/aMF_u916__no_Kex_sequence/1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>No Kex recognition site</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>α-mating factor no Kex recognition site</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>RFP_Sec Sequence</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/RFP_Sec_sequence</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>gcaacttccggtatggtgtcaaagggagaggaaaataatatggctattattaaggagtttatgcgttttaaggtacatatggaaggttctgtcaacggtcacgaattcgaaattgaaggtgagggggaggggaggccatacgagggaactcagactgctaagttaaaggtcactaaaggtggtcctttacctttcgcctgggatatcctgtctccacagtttatgtacggttcaaaggcttatgtgaaacatcctgccgatatcccagattatcttaaactttctttccctgagggttttaagtgggagagggtaatgaactttgaagacggtggtgtggtcactgttactcaggactcaagtctgcaggacggtgagttcatctacaaggtgaagctgagaggtaccaattttccatcagatggtcccgtgatgcaaaaaaagacaatgggttgggaagcttctagtgaacgtatgtatcccgaagatggagctttgaaaggtgaaattaagcaaagactaaaacttaaggatggtggacattacgatgctgaagttaagacgacctacaaggccaaaaagccagtccagttgcctggagcatacaatgttaacatcaaattggatataacttcccataatgaagactataccatcgtcgagcaatacgaacgagccgaagggagacacagtactggtggtatggatgaactttataaaggatccggaaccgca</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>RFP_Sec_sequence</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2071,15 +2405,11 @@
       <c r="I38" t="n">
         <v/>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
       </c>
       <c r="L38" t="n">
         <v/>
@@ -2090,41 +2420,50 @@
       <c r="N38" t="n">
         <v/>
       </c>
+      <c r="O38" t="n">
+        <v/>
+      </c>
+      <c r="P38" t="n">
+        <v/>
+      </c>
+      <c r="Q38" t="n">
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMFΔ_no_Kex Sequence</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/aMF_u916__no_Kex_sequence</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgagattcccatcaatttttactgctgttctgttcgccgcttctagtgcacttgccatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcacagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aMF_u916__no_Kex_sequence</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2133,15 +2472,11 @@
       <c r="I39" t="n">
         <v/>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
       </c>
       <c r="L39" t="n">
         <v/>
@@ -2152,41 +2487,50 @@
       <c r="N39" t="n">
         <v/>
       </c>
+      <c r="O39" t="n">
+        <v/>
+      </c>
+      <c r="P39" t="n">
+        <v/>
+      </c>
+      <c r="Q39" t="n">
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>Inulinase-aMFΔ Sequence</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/Inulinase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgaaactggcttactccctgttgctacctctggctggagtttccgctatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>Inulinase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2195,15 +2539,11 @@
       <c r="I40" t="n">
         <v/>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
       </c>
       <c r="L40" t="n">
         <v/>
@@ -2214,41 +2554,50 @@
       <c r="N40" t="n">
         <v/>
       </c>
+      <c r="O40" t="n">
+        <v/>
+      </c>
+      <c r="P40" t="n">
+        <v/>
+      </c>
+      <c r="Q40" t="n">
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pGAP Sequence</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/pGAP_sequence</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>tttttgtagaaatgtcttggtgtcctcgtccaatcaggtagccatctctgaaatatctggctccgttgcaactccgaacgacctgctggcaacgtaaaattctccggggtaaaacttaaatgtggagtaatggaaccagaaacgtgtcttcccttctctctccttccaccgcccgttaccgtccctaggaaattttactctgctggagagcttcttctacggcccccttgcagcaatgctcttcccagcattacgttgcgggtaaaacggaggtcgtgtacccgacctagcagcccagggatggaaaagtcccggccgtcgctggcaataatagcgggcggacgcatgtcatgagattattggaaaccaccagaatcgaatataaaaggcgaacacctttcccaattttggtttctcctgacccaaagactttaaatttaatttatttgtccctatttcaatcaattgaacaactat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pGAP_sequence</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2257,15 +2606,11 @@
       <c r="I41" t="n">
         <v/>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v/>
       </c>
       <c r="L41" t="n">
         <v/>
@@ -2276,165 +2621,210 @@
       <c r="N41" t="n">
         <v/>
       </c>
+      <c r="O41" t="n">
+        <v/>
+      </c>
+      <c r="P41" t="n">
+        <v/>
+      </c>
+      <c r="Q41" t="n">
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/aMF</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v/>
+      </c>
+      <c r="D42" t="n">
+        <v/>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v/>
-      </c>
-      <c r="I42" t="n">
-        <v/>
+          <t>aMF</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:4932</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>http://examples.org/aMF_sequence/1</t>
+        </is>
       </c>
       <c r="M42" t="n">
         <v/>
       </c>
-      <c r="N42" t="n">
-        <v/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>α-mating factor</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aAmylase-aMFΔ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/aAmylase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v/>
+      </c>
+      <c r="D43" t="n">
+        <v/>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
+          <t>aAmylase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/Composite/1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v/>
       </c>
-      <c r="I43" t="n">
-        <v/>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>http://examples.org/aAmylase_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M43" t="n">
         <v/>
       </c>
-      <c r="N43" t="n">
-        <v/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>α-Amylase followed by aMFΔ</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>Glucoamylase-aMFΔ Sequence</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/Glucoamylase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgtctttcagatccctattggcattgtcagggttggtctgttctggattggctatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>Glucoamylase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2443,15 +2833,11 @@
       <c r="I44" t="n">
         <v/>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J44" t="n">
+        <v/>
+      </c>
+      <c r="K44" t="n">
+        <v/>
       </c>
       <c r="L44" t="n">
         <v/>
@@ -2462,103 +2848,127 @@
       <c r="N44" t="n">
         <v/>
       </c>
+      <c r="O44" t="n">
+        <v/>
+      </c>
+      <c r="P44" t="n">
+        <v/>
+      </c>
+      <c r="Q44" t="n">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>Invertase-aMFΔ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/Invertase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v/>
+      </c>
+      <c r="D45" t="n">
+        <v/>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
+          <t>Invertase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v/>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v/>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>http://examples.org/Invertase_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M45" t="n">
         <v/>
       </c>
-      <c r="N45" t="n">
-        <v/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Invertase followed by aMFΔ</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>SA-aMFΔ Sequence</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/SA_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgaagtgggtaactttcatctcattgttattcttgttctcctctgcttactctatgagatttcctagtattttcactgctgtgctatttgcctctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>SA_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2567,15 +2977,11 @@
       <c r="I46" t="n">
         <v/>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J46" t="n">
+        <v/>
+      </c>
+      <c r="K46" t="n">
+        <v/>
       </c>
       <c r="L46" t="n">
         <v/>
@@ -2586,103 +2992,127 @@
       <c r="N46" t="n">
         <v/>
       </c>
+      <c r="O46" t="n">
+        <v/>
+      </c>
+      <c r="P46" t="n">
+        <v/>
+      </c>
+      <c r="Q46" t="n">
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>Inulinase-aMFΔ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/Inulinase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v/>
+      </c>
+      <c r="D47" t="n">
+        <v/>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+          <t>Inulinase_u45_aMF_u916_</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0002251</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v/>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v/>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>http://examples.org/Inulinase_u45_aMF_u916__sequence/1</t>
+        </is>
       </c>
       <c r="M47" t="n">
         <v/>
       </c>
-      <c r="N47" t="n">
-        <v/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Inulinase followed by aMFΔ</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMFΔ Sequence</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgagatttcctagtattttcactgctgtgctatttgccgctagttcc</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2691,15 +3121,11 @@
       <c r="I48" t="n">
         <v/>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J48" t="n">
+        <v/>
+      </c>
+      <c r="K48" t="n">
+        <v/>
       </c>
       <c r="L48" t="n">
         <v/>
@@ -2710,41 +3136,50 @@
       <c r="N48" t="n">
         <v/>
       </c>
+      <c r="O48" t="n">
+        <v/>
+      </c>
+      <c r="P48" t="n">
+        <v/>
+      </c>
+      <c r="Q48" t="n">
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>RFP Sequence</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/RFP_sequence</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atcgcaacttccggtatggtgtcaaagggagaggaaaataatatggctattattaaggagtttatgcgttttaaggtacatatggaaggttctgtcaacggtcacgaattcgaaattgaaggtgagggggaggggaggccatacgagggaactcagactgctaagttaaaggtcactaaaggtggtcctttacctttcgcctgggatatcctgtctccacagtttatgtacggttcaaaggcttatgtgaaacatcctgccgatatcccagattatcttaaactttctttccctgagggttttaagtgggagagggtaatgaactttgaagacggtggtgtggtcactgttactcaggactcaagtctgcaggacggtgagttcatctacaaggtgaagctgagaggtaccaattttccatcagatggtcccgtgatgcaaaaaaagacaatgggttgggaagcttctagtgaacgtatgtatcccgaagatggagctttgaaaggtgaaattaagcaaagactaaaacttaaggatggtggacattacgatgctgaagttaagacgacctacaaggccaaaaagccagtccagttgcctggagcatacaatgttaacatcaaattggatataacttcccataatgaagactataccatcgtcgagcaatacgaacgagccgaagggagacacagtactggtggtatggatgaactttataaaggatccggaaccgca</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>RFP_sequence</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2753,15 +3188,11 @@
       <c r="I49" t="n">
         <v/>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J49" t="n">
+        <v/>
+      </c>
+      <c r="K49" t="n">
+        <v/>
       </c>
       <c r="L49" t="n">
         <v/>
@@ -2772,41 +3203,50 @@
       <c r="N49" t="n">
         <v/>
       </c>
+      <c r="O49" t="n">
+        <v/>
+      </c>
+      <c r="P49" t="n">
+        <v/>
+      </c>
+      <c r="Q49" t="n">
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pENO1 Sequence</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/pENO1_sequence</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>agaaagcatactatactattcgacattcctttcaatcctggaattaacagtcacttttaaaaaagacatctaccgtgaaggtgccgtagagtatcgcgttaccatatcgccaaaaactgatatacgccgcggaaaccaggcaaacaattgaaaagaaaaattttgaggaactctctgcatcgaagccgtctagagttaccactagtcagatgccgcgggcacttgagcacctcatgcacagcaataacacaacacaatggttagtagcaacctgaattcggtcattgatgcatgcatgtgccgtgaagcgggacaaccagaaaagtcgtctataaatgccggcacgtgcgatcatcgtggcggggttttaagagtgcatatcacaaattgtcgcattaccgcggaaccgccagatattcattacttgacgcaaaagcgtttgaaataatgacgaaaaagaaggaagaaaaaaaaagaaaaataccgcttctaggcgggttatctactgatccgagcttccactaggatagcacccaaacacctgcatatttggacgacctttacttacaccaccaaaaaccactttcgcctctcccgcccctgataacgtccactaattgagcgattacctgagcggtcctcttttgtttgcagcatgagacttgcatactgcaaatcgtaagtagcaacctctcaaggtcaaaactgtatggaaaccttgtcacctcacttaattctagctagcctaccctgcaagtcaagagctctccgtgattcctagccacctcaaggtatgcctctccccggaaactgtggccttttctggcacacatgatctccacgatttcaacatataaatagcttttgataatggcaatattaatcaaatttattttacttctttcttgtaacatctctcttgtaatcccttattccttctagctatttttcataaaaaaccaagcaactgcttatcaacacacaaacactaaatcaaa</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pENO1_sequence</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2815,15 +3255,11 @@
       <c r="I50" t="n">
         <v/>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J50" t="n">
+        <v/>
+      </c>
+      <c r="K50" t="n">
+        <v/>
       </c>
       <c r="L50" t="n">
         <v/>
@@ -2834,103 +3270,133 @@
       <c r="N50" t="n">
         <v/>
       </c>
+      <c r="O50" t="n">
+        <v/>
+      </c>
+      <c r="P50" t="n">
+        <v/>
+      </c>
+      <c r="Q50" t="n">
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>yEGFP_Sec</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+          <t>http://examples.org/yEGFP_Sec</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v/>
+      </c>
+      <c r="D51" t="n">
+        <v/>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v/>
-      </c>
-      <c r="I51" t="n">
-        <v/>
+          <t>yEGFP_Sec</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000316</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasSequence</t>
+          <t>https://synbiohub.org/public/Excel2SBOL/codon_optimisation/1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v/>
-      </c>
-      <c r="M51" t="n">
-        <v/>
-      </c>
-      <c r="N51" t="n">
-        <v/>
+          <t>https://identifiers.org/taxonomy:6100</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>http://examples.org/yEGFP_Sec_sequence/1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>No start or stop codon, for use with N-terminal secretion tag</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Green fluorescent protein</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aAmylase-aMFΔ Sequence</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/aAmylase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atggtggcatggtggtccttattcttatatggtcttcaagttgctgctcctgcccttgctatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aAmylase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2939,15 +3405,11 @@
       <c r="I52" t="n">
         <v/>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J52" t="n">
+        <v/>
+      </c>
+      <c r="K52" t="n">
+        <v/>
       </c>
       <c r="L52" t="n">
         <v/>
@@ -2958,41 +3420,50 @@
       <c r="N52" t="n">
         <v/>
       </c>
+      <c r="O52" t="n">
+        <v/>
+      </c>
+      <c r="P52" t="n">
+        <v/>
+      </c>
+      <c r="Q52" t="n">
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>tAOX1 Sequence</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/tAOX1_sequence</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>tcaagaggatgtcagaatgccatttgcctgagagatgcaggcttcatttttgatacttttttatttgtaacctatatagtataggattttttttgtcattttgtttcttctcgtacgagcttgctcctgatcagcctatctcgcagctgatgaatatcttgtggtaggggtttgggaaaatcattcgagtttgatgtttttcttggtatttcccactcctcttcagagtacagaagattaagtgaga</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>tAOX1_sequence</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3001,15 +3472,11 @@
       <c r="I53" t="n">
         <v/>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J53" t="n">
+        <v/>
+      </c>
+      <c r="K53" t="n">
+        <v/>
       </c>
       <c r="L53" t="n">
         <v/>
@@ -3020,41 +3487,50 @@
       <c r="N53" t="n">
         <v/>
       </c>
+      <c r="O53" t="n">
+        <v/>
+      </c>
+      <c r="P53" t="n">
+        <v/>
+      </c>
+      <c r="Q53" t="n">
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>aMF_no_EAEA Sequence</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/aMF_no_EAEA_sequence</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgagatttccttcaatttttactgctgttttattcgcagcatcctccgcattagctgctccagtcaacactacaacagaagatgaaacggcacaaattccggctgaagctgtcatcggttactcagatttagaaggggatttcgatgttgctgttttgccattttccaacagcacaaataacgggttattgtttataaatactactattgccagcattgctgctaaagaagaaggggtatctctcgagaaaagag</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aMF_no_EAEA_sequence</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3063,15 +3539,11 @@
       <c r="I54" t="n">
         <v/>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J54" t="n">
+        <v/>
+      </c>
+      <c r="K54" t="n">
+        <v/>
       </c>
       <c r="L54" t="n">
         <v/>
@@ -3082,41 +3554,50 @@
       <c r="N54" t="n">
         <v/>
       </c>
+      <c r="O54" t="n">
+        <v/>
+      </c>
+      <c r="P54" t="n">
+        <v/>
+      </c>
+      <c r="Q54" t="n">
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>yEGFP Sequence</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/yEGFP_sequence</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atggtgagcaagggcgaggagctgttcaccggggtggtgcccatcctggtcgagctggacggcgacgtaaacggccacaagttcagcgtgtccggcgagggcgagggcgatgccacctacggcaagctgaccctgaagttcatctgcaccaccggcaagctgcccgtgccctggcccaccctcgtgaccaccctgacctacggcgtgcagtgcttcagccgctaccccgaccacatgaagcagcacgacttcttcaagtccgccatgcccgaaggctacgtccaggagcgcaccatcttcttcaaggacgacggcaactacaagacccgcgccgaggtgaagttcgagggcgacaccctggtgaaccgcatcgagctgaagggcatcgacttcaaggaggacggcaacatcctggggcacaagctggagtacaactacaacagccacaacgtctatatcatggccgacaagcagaagaacggcatcaaggtgaacttcaagatccgccacaacatcgaggacggcagcgtgcagctcgccgaccactaccagcagaacacccccatcggcgacggccccgtgctgctgcccgacaaccactacctgagcacccagagcgccctgagcaaagaccccaacgagaagcgcgatcacatggtcctgctggagttcgtgaccgccgccgggatcactctcggcatggacgagctgtacaag</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>yEGFP_sequence</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3125,15 +3606,11 @@
       <c r="I55" t="n">
         <v/>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J55" t="n">
+        <v/>
+      </c>
+      <c r="K55" t="n">
+        <v/>
       </c>
       <c r="L55" t="n">
         <v/>
@@ -3144,41 +3621,50 @@
       <c r="N55" t="n">
         <v/>
       </c>
+      <c r="O55" t="n">
+        <v/>
+      </c>
+      <c r="P55" t="n">
+        <v/>
+      </c>
+      <c r="Q55" t="n">
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>yEGFP_Sec Sequence</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/yEGFP_Sec_sequence</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>gtgagcaagggcgaggagctgttcaccggggtggtgcccatcctggtcgagctggacggcgacgtaaacggccacaagttcagcgtgtccggcgagggcgagggcgatgccacctacggcaagctgaccctgaagttcatctgcaccaccggcaagctgcccgtgccctggcccaccctcgtgaccaccctgacctacggcgtgcagtgcttcagccgctaccccgaccacatgaagcagcacgacttcttcaagtccgccatgcccgaaggctacgtccaggagcgcaccatcttcttcaaggacgacggcaactacaagacccgcgccgaggtgaagttcgagggcgacaccctggtgaaccgcatcgagctgaagggcatcgacttcaaggaggacggcaacatcctggggcacaagctggagtacaactacaacagccacaacgtctatatcatggccgacaagcagaagaacggcatcaaggtgaacttcaagatccgccacaacatcgaggacggcagcgtgcagctcgccgaccactaccagcagaacacccccatcggcgacggccccgtgctgctgcccgacaaccactacctgagcacccagagcgccctgagcaaagaccccaacgagaagcgcgatcacatggtcctgctggagttcgtgaccgccgccgggatcactctcggcatggacgagctgtacaag</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>yEGFP_Sec_sequence</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3187,15 +3673,11 @@
       <c r="I56" t="n">
         <v/>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J56" t="n">
+        <v/>
+      </c>
+      <c r="K56" t="n">
+        <v/>
       </c>
       <c r="L56" t="n">
         <v/>
@@ -3206,41 +3688,50 @@
       <c r="N56" t="n">
         <v/>
       </c>
+      <c r="O56" t="n">
+        <v/>
+      </c>
+      <c r="P56" t="n">
+        <v/>
+      </c>
+      <c r="Q56" t="n">
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>pTPI1 Sequence</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/pTPI1_sequence</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>gtgtttaaagattacggatatttaacttacttagaataatgccatttttttgagttataataatcctacgttagtgtgagcgggatttaaactgtgaggaccttaatacattcagacacttctgcggtatcaccctacttattcccttcgagattatatctaggaacccatcaggttggtggaagattacccgttctaagacttttcagcttcctctattgatgttacacctggacaccccttttctggcatccagtttttaatcttcagtggcatgtgagattctccgaaattaactaaagcaatcacacaattctctcggataccacctcggttgaaactgacaggtggtttgttacgcatgctaatgcaaaggagcctatatacctttggctcggctgctgtaacagggaatataaagggcagcataatttaggagtttagtgaacttgcaacatttactattttcccttcttacgtaaatatttttctttttaattctaaatcaatctttttcaattttttgtttgtattcttttcttgcttaaatctataactacaaaaaacacatacataaactaaaa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>pTPI1_sequence</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3249,15 +3740,11 @@
       <c r="I57" t="n">
         <v/>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J57" t="n">
+        <v/>
+      </c>
+      <c r="K57" t="n">
+        <v/>
       </c>
       <c r="L57" t="n">
         <v/>
@@ -3268,41 +3755,50 @@
       <c r="N57" t="n">
         <v/>
       </c>
+      <c r="O57" t="n">
+        <v/>
+      </c>
+      <c r="P57" t="n">
+        <v/>
+      </c>
+      <c r="Q57" t="n">
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#role</t>
+          <t>attB Sequence</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/attB_sequence</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>tggccgtggccgtgctcgtcctcgtcggccggcttgtcgacgacggcggtcaccgtcgtcaggatcatccgggccacaagcttgctgacagaagcctcaagaaaaaaaaaattcttcttcgactatgctggaggcagagatgatcgagccggtagttaactatatatagctaaattggttccatcac</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>attB_sequence</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3311,15 +3807,11 @@
       <c r="I58" t="n">
         <v/>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasSequence</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasModel</t>
-        </is>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+      <c r="K58" t="n">
+        <v/>
       </c>
       <c r="L58" t="n">
         <v/>
@@ -3330,39 +3822,50 @@
       <c r="N58" t="n">
         <v/>
       </c>
+      <c r="O58" t="n">
+        <v/>
+      </c>
+      <c r="P58" t="n">
+        <v/>
+      </c>
+      <c r="Q58" t="n">
+        <v/>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Invertase-aMFΔ Sequence</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/Invertase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgttattgcaagcttttttatttctgctggcaggttttgcagcaaagatttctgccatgagatttcctagtattttcactgctgtgctatttgccgctagttccgctctagctgctccagttaatactactactgaagatgaattggagggtgacttcgatgttgctgttctgcctttttccgcttctatcgcagccaaggaagaaggtgtatctctagagaagcgt</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>Invertase_u45_aMF_u916__sequence</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3377,52 +3880,59 @@
       <c r="K59" t="n">
         <v/>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
+      <c r="L59" t="n">
+        <v/>
+      </c>
+      <c r="M59" t="n">
+        <v/>
       </c>
       <c r="N59" t="n">
         <v/>
       </c>
+      <c r="O59" t="n">
+        <v/>
+      </c>
+      <c r="P59" t="n">
+        <v/>
+      </c>
+      <c r="Q59" t="n">
+        <v/>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>aMF Sequence</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#name</t>
+          <t>http://examples.org/aMF_sequence</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#description</t>
+          <t>atgagatttccttcaatttttactgctgttttattcgcagcatcctccgcattagctgctccagtcaacactacaacagaagatgaaacggcacaaattccggctgaagctgtcatcggttactcagatttagaaggggatttcgatgttgctgttttgccattttccaacagcacaaataacgggttattgtttataaatactactattgccagcattgctgctaaagaagaaggggtatctctcgagaaaagagaggctgaagct</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
+          <t>http://www.chem.qmul.ac.uk/iubmb/misc/naseq.html</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#Sequence</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
+          <t>aMF_sequence</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3437,1569 +3947,103 @@
       <c r="K60" t="n">
         <v/>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
+      <c r="L60" t="n">
+        <v/>
+      </c>
+      <c r="M60" t="n">
+        <v/>
       </c>
       <c r="N60" t="n">
         <v/>
       </c>
+      <c r="O60" t="n">
+        <v/>
+      </c>
+      <c r="P60" t="n">
+        <v/>
+      </c>
+      <c r="Q60" t="n">
+        <v/>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>attB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://examples.org/attB</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v/>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
+      <c r="D61" t="n">
+        <v/>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
+          <t>http://sbols.org/v2#ComponentDefinition</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v/>
-      </c>
-      <c r="I61" t="n">
-        <v/>
-      </c>
-      <c r="J61" t="n">
-        <v/>
+          <t>attB</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>http://identifiers.org/so/SO:0000342</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>http://www.biopax.org/release/biopax-level3.owl#DnaRegion</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://synbiohub.org/public/Excel2SBOL/mutations/1</t>
+        </is>
       </c>
       <c r="K61" t="n">
         <v/>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#elements</t>
+          <t>http://examples.org/attB_sequence/1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v/>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v/>
-      </c>
-      <c r="I62" t="n">
-        <v/>
-      </c>
-      <c r="J62" t="n">
-        <v/>
-      </c>
-      <c r="K62" t="n">
-        <v/>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v/>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v/>
-      </c>
-      <c r="I63" t="n">
-        <v/>
-      </c>
-      <c r="J63" t="n">
-        <v/>
-      </c>
-      <c r="K63" t="n">
-        <v/>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v/>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v/>
-      </c>
-      <c r="I64" t="n">
-        <v/>
-      </c>
-      <c r="J64" t="n">
-        <v/>
-      </c>
-      <c r="K64" t="n">
-        <v/>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v/>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v/>
-      </c>
-      <c r="I65" t="n">
-        <v/>
-      </c>
-      <c r="J65" t="n">
-        <v/>
-      </c>
-      <c r="K65" t="n">
-        <v/>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v/>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v/>
-      </c>
-      <c r="I66" t="n">
-        <v/>
-      </c>
-      <c r="J66" t="n">
-        <v/>
-      </c>
-      <c r="K66" t="n">
-        <v/>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v/>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v/>
-      </c>
-      <c r="I67" t="n">
-        <v/>
-      </c>
-      <c r="J67" t="n">
-        <v/>
-      </c>
-      <c r="K67" t="n">
-        <v/>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v/>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v/>
-      </c>
-      <c r="I68" t="n">
-        <v/>
-      </c>
-      <c r="J68" t="n">
-        <v/>
-      </c>
-      <c r="K68" t="n">
-        <v/>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v/>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v/>
-      </c>
-      <c r="I69" t="n">
-        <v/>
-      </c>
-      <c r="J69" t="n">
-        <v/>
-      </c>
-      <c r="K69" t="n">
-        <v/>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v/>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v/>
-      </c>
-      <c r="I70" t="n">
-        <v/>
-      </c>
-      <c r="J70" t="n">
-        <v/>
-      </c>
-      <c r="K70" t="n">
-        <v/>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v/>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v/>
-      </c>
-      <c r="I71" t="n">
-        <v/>
-      </c>
-      <c r="J71" t="n">
-        <v/>
-      </c>
-      <c r="K71" t="n">
-        <v/>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v/>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v/>
-      </c>
-      <c r="I72" t="n">
-        <v/>
-      </c>
-      <c r="J72" t="n">
-        <v/>
-      </c>
-      <c r="K72" t="n">
-        <v/>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v/>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v/>
-      </c>
-      <c r="I73" t="n">
-        <v/>
-      </c>
-      <c r="J73" t="n">
-        <v/>
-      </c>
-      <c r="K73" t="n">
-        <v/>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v/>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v/>
-      </c>
-      <c r="I74" t="n">
-        <v/>
-      </c>
-      <c r="J74" t="n">
-        <v/>
-      </c>
-      <c r="K74" t="n">
-        <v/>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v/>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v/>
-      </c>
-      <c r="I75" t="n">
-        <v/>
-      </c>
-      <c r="J75" t="n">
-        <v/>
-      </c>
-      <c r="K75" t="n">
-        <v/>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v/>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v/>
-      </c>
-      <c r="I76" t="n">
-        <v/>
-      </c>
-      <c r="J76" t="n">
-        <v/>
-      </c>
-      <c r="K76" t="n">
-        <v/>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v/>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v/>
-      </c>
-      <c r="I77" t="n">
-        <v/>
-      </c>
-      <c r="J77" t="n">
-        <v/>
-      </c>
-      <c r="K77" t="n">
-        <v/>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v/>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v/>
-      </c>
-      <c r="I78" t="n">
-        <v/>
-      </c>
-      <c r="J78" t="n">
-        <v/>
-      </c>
-      <c r="K78" t="n">
-        <v/>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v/>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v/>
-      </c>
-      <c r="I79" t="n">
-        <v/>
-      </c>
-      <c r="J79" t="n">
-        <v/>
-      </c>
-      <c r="K79" t="n">
-        <v/>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v/>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v/>
-      </c>
-      <c r="I80" t="n">
-        <v/>
-      </c>
-      <c r="J80" t="n">
-        <v/>
-      </c>
-      <c r="K80" t="n">
-        <v/>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v/>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v/>
-      </c>
-      <c r="I81" t="n">
-        <v/>
-      </c>
-      <c r="J81" t="n">
-        <v/>
-      </c>
-      <c r="K81" t="n">
-        <v/>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v/>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v/>
-      </c>
-      <c r="I82" t="n">
-        <v/>
-      </c>
-      <c r="J82" t="n">
-        <v/>
-      </c>
-      <c r="K82" t="n">
-        <v/>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#elements</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#encoding</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v/>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v/>
-      </c>
-      <c r="I83" t="n">
-        <v/>
-      </c>
-      <c r="J83" t="n">
-        <v/>
-      </c>
-      <c r="K83" t="n">
-        <v/>
-      </c>
-      <c r="L83" t="n">
-        <v/>
-      </c>
-      <c r="M83" t="n">
-        <v/>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#member</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v/>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v/>
-      </c>
-      <c r="I84" t="n">
-        <v/>
-      </c>
-      <c r="J84" t="n">
-        <v/>
-      </c>
-      <c r="K84" t="n">
-        <v/>
-      </c>
-      <c r="L84" t="n">
-        <v/>
-      </c>
-      <c r="M84" t="n">
-        <v/>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#member</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v/>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v/>
-      </c>
-      <c r="I85" t="n">
-        <v/>
-      </c>
-      <c r="J85" t="n">
-        <v/>
-      </c>
-      <c r="K85" t="n">
-        <v/>
-      </c>
-      <c r="L85" t="n">
-        <v/>
-      </c>
-      <c r="M85" t="n">
-        <v/>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#member</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v/>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#name</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#description</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasDerivedFrom</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/prov#wasGeneratedBy</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasNamespace</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#hasAttachment</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v/>
-      </c>
-      <c r="I86" t="n">
-        <v/>
-      </c>
-      <c r="J86" t="n">
-        <v/>
-      </c>
-      <c r="K86" t="n">
-        <v/>
-      </c>
-      <c r="L86" t="n">
-        <v/>
-      </c>
-      <c r="M86" t="n">
-        <v/>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>http://sbols.org/v3#member</t>
+          <t>BsaI site removed</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>28252957</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>https://identifiers.org/taxonomy:4922</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28252957</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>BxbI recognition site, BsaI site removed</t>
         </is>
       </c>
     </row>
